--- a/test/output/new封包遺失率比較.xlsx
+++ b/test/output/new封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965D93CF-5320-49C9-9633-BD669C345B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B3275A-9243-414E-A9C1-9F079268C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30240" yWindow="1335" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -544,25 +544,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.130602</c:v>
+                  <c:v>0.12851599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.130797</c:v>
+                  <c:v>0.12850800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.130853</c:v>
+                  <c:v>0.128326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13026599999999999</c:v>
+                  <c:v>0.12911600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13100600000000001</c:v>
+                  <c:v>0.12862399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13077900000000001</c:v>
+                  <c:v>0.128936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13119700000000001</c:v>
+                  <c:v>0.12874099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
+              <c:f>工作表1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -948,7 +948,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -978,7 +978,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1018,7 +1018,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,7 +1054,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1084,7 +1084,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1124,7 +1124,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1160,7 +1160,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1190,7 +1190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:f>工作表1!$C$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1230,7 +1230,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1264,7 +1264,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1294,30 +1294,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:f>工作表1!$C$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12819800000000001</c:v>
+                  <c:v>0.12851899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12867799999999999</c:v>
+                  <c:v>0.12857499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12882099999999999</c:v>
+                  <c:v>0.128577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12847900000000001</c:v>
+                  <c:v>0.128608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12876099999999999</c:v>
+                  <c:v>0.12887699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12845200000000001</c:v>
+                  <c:v>0.12836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12909799999999999</c:v>
+                  <c:v>0.129245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1667,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$17</c:f>
+              <c:f>工作表1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1703,7 +1703,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1711,53 +1711,32 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
+              <c:f>工作表1!$C$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.131103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.131379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13081499999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13105600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.130851</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13156699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13172200000000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1773,7 +1752,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$18</c:f>
+              <c:f>工作表1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1809,7 +1788,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1817,53 +1796,32 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
+              <c:f>工作表1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.116346</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11111799999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10513699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9457400000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8284200000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3090699999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0073299999999995E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1879,7 +1837,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
+              <c:f>工作表1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1915,7 +1873,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1923,53 +1881,32 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$19:$I$19</c:f>
+              <c:f>工作表1!$C$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.0788200000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2311299999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9650500000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3936999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.1484900000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.92337E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0030100000000003E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3983,13 +3920,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276223</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4019,13 +3956,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4055,13 +3992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4411,10 +4348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4537,276 +4474,210 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.130602</v>
+        <v>0.12851599999999999</v>
       </c>
       <c r="D5">
-        <v>0.130797</v>
+        <v>0.12850800000000001</v>
       </c>
       <c r="E5">
-        <v>0.130853</v>
+        <v>0.128326</v>
       </c>
       <c r="F5">
-        <v>0.13026599999999999</v>
+        <v>0.12911600000000001</v>
       </c>
       <c r="G5">
-        <v>0.13100600000000001</v>
+        <v>0.12862399999999999</v>
       </c>
       <c r="H5">
-        <v>0.13077900000000001</v>
+        <v>0.128936</v>
       </c>
       <c r="I5">
-        <v>0.13119700000000001</v>
+        <v>0.12874099999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>400</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>600</v>
+      </c>
+      <c r="F7" s="1">
+        <v>700</v>
+      </c>
+      <c r="G7" s="1">
+        <v>800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>900</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.128693</v>
+      </c>
+      <c r="D8">
+        <v>0.129001</v>
+      </c>
+      <c r="E8">
+        <v>0.129415</v>
+      </c>
+      <c r="F8">
+        <v>0.12870300000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.12895599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.12889700000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.12928899999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>400</v>
-      </c>
-      <c r="D9" s="1">
-        <v>500</v>
-      </c>
-      <c r="E9" s="1">
-        <v>600</v>
-      </c>
-      <c r="F9" s="1">
-        <v>700</v>
-      </c>
-      <c r="G9" s="1">
-        <v>800</v>
-      </c>
-      <c r="H9" s="1">
-        <v>900</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1000</v>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.10485</v>
+      </c>
+      <c r="D9">
+        <v>0.104327</v>
+      </c>
+      <c r="E9">
+        <v>0.103002</v>
+      </c>
+      <c r="F9">
+        <v>0.10203</v>
+      </c>
+      <c r="G9">
+        <v>0.102699</v>
+      </c>
+      <c r="H9">
+        <v>0.102019</v>
+      </c>
+      <c r="I9">
+        <v>0.10069699999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0.128693</v>
+        <v>9.7487700000000004E-3</v>
       </c>
       <c r="D10">
-        <v>0.129001</v>
+        <v>1.00182E-2</v>
       </c>
       <c r="E10">
-        <v>0.129415</v>
+        <v>9.5869900000000001E-3</v>
       </c>
       <c r="F10">
-        <v>0.12870300000000001</v>
+        <v>9.7823200000000006E-3</v>
       </c>
       <c r="G10">
-        <v>0.12895599999999999</v>
+        <v>1.0396600000000001E-2</v>
       </c>
       <c r="H10">
-        <v>0.12889700000000001</v>
+        <v>1.03125E-2</v>
       </c>
       <c r="I10">
-        <v>0.12928899999999999</v>
+        <v>1.00917E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0.10485</v>
+        <v>0.12851899999999999</v>
       </c>
       <c r="D11">
-        <v>0.104327</v>
+        <v>0.12857499999999999</v>
       </c>
       <c r="E11">
-        <v>0.103002</v>
+        <v>0.128577</v>
       </c>
       <c r="F11">
-        <v>0.10203</v>
+        <v>0.128608</v>
       </c>
       <c r="G11">
-        <v>0.102699</v>
+        <v>0.12887699999999999</v>
       </c>
       <c r="H11">
-        <v>0.102019</v>
+        <v>0.12836</v>
       </c>
       <c r="I11">
-        <v>0.10069699999999999</v>
+        <v>0.129245</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>9.7487700000000004E-3</v>
-      </c>
-      <c r="D12">
-        <v>1.00182E-2</v>
-      </c>
-      <c r="E12">
-        <v>9.5869900000000001E-3</v>
-      </c>
-      <c r="F12">
-        <v>9.7823200000000006E-3</v>
-      </c>
-      <c r="G12">
-        <v>1.0396600000000001E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.03125E-2</v>
-      </c>
-      <c r="I12">
-        <v>1.00917E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>0.12819800000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.12867799999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.12882099999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.12847900000000001</v>
-      </c>
-      <c r="G13">
-        <v>0.12876099999999999</v>
-      </c>
-      <c r="H13">
-        <v>0.12845200000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.12909799999999999</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>600</v>
+      </c>
+      <c r="F14" s="1">
+        <v>700</v>
+      </c>
+      <c r="G14" s="1">
+        <v>800</v>
+      </c>
+      <c r="H14" s="1">
+        <v>900</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>400</v>
-      </c>
-      <c r="D16" s="1">
-        <v>600</v>
-      </c>
-      <c r="E16" s="1">
-        <v>800</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1400</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1600</v>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0.131103</v>
-      </c>
-      <c r="D17">
-        <v>0.131379</v>
-      </c>
-      <c r="E17">
-        <v>0.13081499999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.13105600000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.130851</v>
-      </c>
-      <c r="H17">
-        <v>0.13156699999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.13172200000000001</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0.116346</v>
-      </c>
-      <c r="D18">
-        <v>0.11111799999999999</v>
-      </c>
-      <c r="E18">
-        <v>0.10513699999999999</v>
-      </c>
-      <c r="F18">
-        <v>9.9457400000000001E-2</v>
-      </c>
-      <c r="G18">
-        <v>9.8284200000000002E-2</v>
-      </c>
-      <c r="H18">
-        <v>9.3090699999999998E-2</v>
-      </c>
-      <c r="I18">
-        <v>9.0073299999999995E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>8.0788200000000004E-2</v>
-      </c>
-      <c r="D19">
-        <v>7.2311299999999995E-2</v>
-      </c>
-      <c r="E19">
-        <v>6.9650500000000004E-2</v>
-      </c>
-      <c r="F19">
-        <v>6.3936999999999994E-2</v>
-      </c>
-      <c r="G19">
-        <v>6.1484900000000002E-2</v>
-      </c>
-      <c r="H19">
-        <v>5.92337E-2</v>
-      </c>
-      <c r="I19">
-        <v>6.0030100000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test/output/new封包遺失率比較.xlsx
+++ b/test/output/new封包遺失率比較.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B3275A-9243-414E-A9C1-9F079268C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3AE28-1D39-4C2C-AC59-11D83FA3C80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30240" yWindow="1335" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -228,25 +228,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13094</c:v>
+                  <c:v>0.130749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1313</c:v>
+                  <c:v>0.13122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13111999999999999</c:v>
+                  <c:v>0.13093299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13094600000000001</c:v>
+                  <c:v>0.130963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13139000000000001</c:v>
+                  <c:v>0.13051299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13122800000000001</c:v>
+                  <c:v>0.13048599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13081799999999999</c:v>
+                  <c:v>0.131103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,25 +440,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.4821699999999998E-3</c:v>
+                  <c:v>1.05013E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.03591E-2</c:v>
+                  <c:v>1.0311000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02959E-2</c:v>
+                  <c:v>1.0355100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0736000000000001E-2</c:v>
+                  <c:v>1.0635E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0784699999999999E-2</c:v>
+                  <c:v>1.0182500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0401499999999999E-2</c:v>
+                  <c:v>1.0955700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0528300000000001E-2</c:v>
+                  <c:v>9.6988500000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,25 +544,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12851599999999999</c:v>
+                  <c:v>0.13070599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12850800000000001</c:v>
+                  <c:v>0.13084399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.128326</c:v>
+                  <c:v>0.13067300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12911600000000001</c:v>
+                  <c:v>0.13073699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12862399999999999</c:v>
+                  <c:v>0.131463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.128936</c:v>
+                  <c:v>0.130882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12874099999999999</c:v>
+                  <c:v>0.13067500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +983,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.128693</c:v>
+                  <c:v>0.12803300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.129001</c:v>
@@ -1089,25 +1089,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10485</c:v>
+                  <c:v>0.107489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.104327</c:v>
+                  <c:v>0.10506600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.103002</c:v>
+                  <c:v>0.1036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10203</c:v>
+                  <c:v>0.100937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.102699</c:v>
+                  <c:v>0.10034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.102019</c:v>
+                  <c:v>0.102663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10069699999999999</c:v>
+                  <c:v>0.10234500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,25 +1195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.7487700000000004E-3</c:v>
+                  <c:v>1.0097200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.00182E-2</c:v>
+                  <c:v>9.9575600000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5869900000000001E-3</c:v>
+                  <c:v>1.0361E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7823200000000006E-3</c:v>
+                  <c:v>1.01978E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0396600000000001E-2</c:v>
+                  <c:v>9.7579399999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.03125E-2</c:v>
+                  <c:v>1.0672600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.00917E-2</c:v>
+                  <c:v>1.02226E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,25 +1299,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12851899999999999</c:v>
+                  <c:v>0.12795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12857499999999999</c:v>
+                  <c:v>0.12828200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.128577</c:v>
+                  <c:v>0.128382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.128608</c:v>
+                  <c:v>0.12895499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12887699999999999</c:v>
+                  <c:v>0.12859300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12836</c:v>
+                  <c:v>0.128195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.129245</c:v>
+                  <c:v>0.128692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4350,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4396,25 +4396,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.13094</v>
+        <v>0.130749</v>
       </c>
       <c r="D2">
-        <v>0.1313</v>
+        <v>0.13122</v>
       </c>
       <c r="E2">
-        <v>0.13111999999999999</v>
+        <v>0.13093299999999999</v>
       </c>
       <c r="F2">
-        <v>0.13094600000000001</v>
+        <v>0.130963</v>
       </c>
       <c r="G2">
-        <v>0.13139000000000001</v>
+        <v>0.13051299999999999</v>
       </c>
       <c r="H2">
-        <v>0.13122800000000001</v>
+        <v>0.13048599999999999</v>
       </c>
       <c r="I2">
-        <v>0.13081799999999999</v>
+        <v>0.131103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4448,25 +4448,25 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.4821699999999998E-3</v>
+        <v>1.05013E-2</v>
       </c>
       <c r="D4">
-        <v>1.03591E-2</v>
+        <v>1.0311000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>1.02959E-2</v>
+        <v>1.0355100000000001E-2</v>
       </c>
       <c r="F4">
-        <v>1.0736000000000001E-2</v>
+        <v>1.0635E-2</v>
       </c>
       <c r="G4">
-        <v>1.0784699999999999E-2</v>
+        <v>1.0182500000000001E-2</v>
       </c>
       <c r="H4">
-        <v>1.0401499999999999E-2</v>
+        <v>1.0955700000000001E-2</v>
       </c>
       <c r="I4">
-        <v>1.0528300000000001E-2</v>
+        <v>9.6988500000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4474,25 +4474,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.12851599999999999</v>
+        <v>0.13070599999999999</v>
       </c>
       <c r="D5">
-        <v>0.12850800000000001</v>
+        <v>0.13084399999999999</v>
       </c>
       <c r="E5">
-        <v>0.128326</v>
+        <v>0.13067300000000001</v>
       </c>
       <c r="F5">
-        <v>0.12911600000000001</v>
+        <v>0.13073699999999999</v>
       </c>
       <c r="G5">
-        <v>0.12862399999999999</v>
+        <v>0.131463</v>
       </c>
       <c r="H5">
-        <v>0.128936</v>
+        <v>0.130882</v>
       </c>
       <c r="I5">
-        <v>0.12874099999999999</v>
+        <v>0.13067500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.128693</v>
+        <v>0.12803300000000001</v>
       </c>
       <c r="D8">
         <v>0.129001</v>
@@ -4558,25 +4558,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.10485</v>
+        <v>0.107489</v>
       </c>
       <c r="D9">
-        <v>0.104327</v>
+        <v>0.10506600000000001</v>
       </c>
       <c r="E9">
-        <v>0.103002</v>
+        <v>0.1036</v>
       </c>
       <c r="F9">
-        <v>0.10203</v>
+        <v>0.100937</v>
       </c>
       <c r="G9">
-        <v>0.102699</v>
+        <v>0.10034</v>
       </c>
       <c r="H9">
-        <v>0.102019</v>
+        <v>0.102663</v>
       </c>
       <c r="I9">
-        <v>0.10069699999999999</v>
+        <v>0.10234500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4584,25 +4584,25 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>9.7487700000000004E-3</v>
+        <v>1.0097200000000001E-2</v>
       </c>
       <c r="D10">
-        <v>1.00182E-2</v>
+        <v>9.9575600000000007E-3</v>
       </c>
       <c r="E10">
-        <v>9.5869900000000001E-3</v>
+        <v>1.0361E-2</v>
       </c>
       <c r="F10">
-        <v>9.7823200000000006E-3</v>
+        <v>1.01978E-2</v>
       </c>
       <c r="G10">
-        <v>1.0396600000000001E-2</v>
+        <v>9.7579399999999997E-3</v>
       </c>
       <c r="H10">
-        <v>1.03125E-2</v>
+        <v>1.0672600000000001E-2</v>
       </c>
       <c r="I10">
-        <v>1.00917E-2</v>
+        <v>1.02226E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4610,25 +4610,25 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.12851899999999999</v>
+        <v>0.12795999999999999</v>
       </c>
       <c r="D11">
-        <v>0.12857499999999999</v>
+        <v>0.12828200000000001</v>
       </c>
       <c r="E11">
-        <v>0.128577</v>
+        <v>0.128382</v>
       </c>
       <c r="F11">
-        <v>0.128608</v>
+        <v>0.12895499999999999</v>
       </c>
       <c r="G11">
-        <v>0.12887699999999999</v>
+        <v>0.12859300000000001</v>
       </c>
       <c r="H11">
-        <v>0.12836</v>
+        <v>0.128195</v>
       </c>
       <c r="I11">
-        <v>0.129245</v>
+        <v>0.128692</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">

--- a/test/output/new封包遺失率比較.xlsx
+++ b/test/output/new封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3AE28-1D39-4C2C-AC59-11D83FA3C80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E0C58-1C27-4EE8-A88E-A930C8611EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
                   <c:v>0.131463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.130882</c:v>
+                  <c:v>0.13113</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.13067500000000001</c:v>
@@ -1305,7 +1305,7 @@
                   <c:v>0.12828200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.128382</c:v>
+                  <c:v>0.128885</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.12895499999999999</c:v>
@@ -4350,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4489,7 +4489,7 @@
         <v>0.131463</v>
       </c>
       <c r="H5">
-        <v>0.130882</v>
+        <v>0.13113</v>
       </c>
       <c r="I5">
         <v>0.13067500000000001</v>
@@ -4616,7 +4616,7 @@
         <v>0.12828200000000001</v>
       </c>
       <c r="E11">
-        <v>0.128382</v>
+        <v>0.128885</v>
       </c>
       <c r="F11">
         <v>0.12895499999999999</v>

--- a/test/output/new封包遺失率比較.xlsx
+++ b/test/output/new封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E0C58-1C27-4EE8-A88E-A930C8611EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11106A94-8C8A-4A66-B542-A06C8277FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$8</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -948,42 +948,39 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.12803300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.129001</c:v>
@@ -1018,7 +1015,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$9</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,13 +1051,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1084,12 +1078,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.107489</c:v>
+                  <c:v>0.12803300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10506600000000001</c:v>
@@ -1124,7 +1118,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
+              <c:f>工作表1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1160,13 +1154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1190,12 +1181,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:f>工作表1!$C$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0097200000000001E-2</c:v>
+                  <c:v>0.107489</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.9575600000000007E-3</c:v>
@@ -1230,7 +1221,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1264,13 +1255,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1294,12 +1282,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:f>工作表1!$C$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12795999999999999</c:v>
+                  <c:v>1.0097200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12828200000000001</c:v>
@@ -1667,7 +1655,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$15</c:f>
+              <c:f>工作表1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1703,40 +1691,40 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1752,7 +1740,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$16</c:f>
+              <c:f>工作表1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1788,13 +1776,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1818,7 +1803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1837,7 +1822,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$17</c:f>
+              <c:f>工作表1!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1873,13 +1858,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1903,7 +1885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
+              <c:f>工作表1!$C$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3920,13 +3902,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276223</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3956,13 +3938,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3992,13 +3974,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4348,21 +4330,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I7" sqref="B6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="3" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4388,7 +4370,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4417,7 +4399,7 @@
         <v>0.131103</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +4425,7 @@
         <v>0.10191600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4469,7 +4451,7 @@
         <v>9.6988500000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4495,189 +4477,191 @@
         <v>0.13067500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>700</v>
+      </c>
+      <c r="G8" s="1">
+        <v>800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>900</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>400</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9">
+        <v>0.129001</v>
+      </c>
+      <c r="E9">
+        <v>0.129415</v>
+      </c>
+      <c r="F9">
+        <v>0.12870300000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.12895599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.12889700000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.12928899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.12803300000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.10506600000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.1036</v>
+      </c>
+      <c r="F10">
+        <v>0.100937</v>
+      </c>
+      <c r="G10">
+        <v>0.10034</v>
+      </c>
+      <c r="H10">
+        <v>0.102663</v>
+      </c>
+      <c r="I10">
+        <v>0.10234500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.107489</v>
+      </c>
+      <c r="D11">
+        <v>9.9575600000000007E-3</v>
+      </c>
+      <c r="E11">
+        <v>1.0361E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.01978E-2</v>
+      </c>
+      <c r="G11">
+        <v>9.7579399999999997E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.0672600000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.02226E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1.0097200000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.12828200000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.128885</v>
+      </c>
+      <c r="F12">
+        <v>0.12895499999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.12859300000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.128195</v>
+      </c>
+      <c r="I12">
+        <v>0.128692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.12795999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
         <v>500</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E15" s="1">
         <v>600</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F15" s="1">
         <v>700</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G15" s="1">
         <v>800</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H15" s="1">
         <v>900</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I15" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.12803300000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.129001</v>
-      </c>
-      <c r="E8">
-        <v>0.129415</v>
-      </c>
-      <c r="F8">
-        <v>0.12870300000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.12895599999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.12889700000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.12928899999999999</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.107489</v>
-      </c>
-      <c r="D9">
-        <v>0.10506600000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.1036</v>
-      </c>
-      <c r="F9">
-        <v>0.100937</v>
-      </c>
-      <c r="G9">
-        <v>0.10034</v>
-      </c>
-      <c r="H9">
-        <v>0.102663</v>
-      </c>
-      <c r="I9">
-        <v>0.10234500000000001</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1.0097200000000001E-2</v>
-      </c>
-      <c r="D10">
-        <v>9.9575600000000007E-3</v>
-      </c>
-      <c r="E10">
-        <v>1.0361E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.01978E-2</v>
-      </c>
-      <c r="G10">
-        <v>9.7579399999999997E-3</v>
-      </c>
-      <c r="H10">
-        <v>1.0672600000000001E-2</v>
-      </c>
-      <c r="I10">
-        <v>1.02226E-2</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>0.12795999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.12828200000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.128885</v>
-      </c>
-      <c r="F11">
-        <v>0.12895499999999999</v>
-      </c>
-      <c r="G11">
-        <v>0.12859300000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.128195</v>
-      </c>
-      <c r="I11">
-        <v>0.128692</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>400</v>
-      </c>
-      <c r="D14" s="1">
-        <v>500</v>
-      </c>
-      <c r="E14" s="1">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>700</v>
-      </c>
-      <c r="G14" s="1">
-        <v>800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>900</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test/output/new封包遺失率比較.xlsx
+++ b/test/output/new封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11106A94-8C8A-4A66-B542-A06C8277FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FD225-6F09-482D-ADCC-BB1D19955AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -180,11 +182,15 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -487,7 +493,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -497,10 +503,12 @@
             <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -912,7 +920,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
+              <c:f>工作表1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -931,8 +939,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -948,10 +956,13 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -975,30 +986,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>0.130749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.129001</c:v>
+                  <c:v>0.13122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.129415</c:v>
+                  <c:v>0.13093299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12870300000000001</c:v>
+                  <c:v>0.130963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12895599999999999</c:v>
+                  <c:v>0.13051299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12889700000000001</c:v>
+                  <c:v>0.13048599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12928899999999999</c:v>
+                  <c:v>0.131103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-220B-4259-BE82-65EF202D7B9F}"/>
+              <c16:uniqueId val="{00000000-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1015,7 +1026,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,10 +1062,13 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1078,30 +1092,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:f>工作表1!$C$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12803300000000001</c:v>
+                  <c:v>0.105403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10506600000000001</c:v>
+                  <c:v>0.102995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1036</c:v>
+                  <c:v>0.101853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.100937</c:v>
+                  <c:v>0.101343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10034</c:v>
+                  <c:v>0.10141799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.102663</c:v>
+                  <c:v>0.10173599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10234500000000001</c:v>
+                  <c:v>0.10191600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-220B-4259-BE82-65EF202D7B9F}"/>
+              <c16:uniqueId val="{00000001-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,7 +1132,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
+              <c:f>工作表1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1154,10 +1168,13 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1181,30 +1198,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:f>工作表1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.107489</c:v>
+                  <c:v>1.05013E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9575600000000007E-3</c:v>
+                  <c:v>1.0311000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0361E-2</c:v>
+                  <c:v>1.0355100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01978E-2</c:v>
+                  <c:v>1.0635E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7579399999999997E-3</c:v>
+                  <c:v>1.0182500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0672600000000001E-2</c:v>
+                  <c:v>1.0955700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.02226E-2</c:v>
+                  <c:v>9.6988500000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1229,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-220B-4259-BE82-65EF202D7B9F}"/>
+              <c16:uniqueId val="{00000002-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1221,7 +1238,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
+              <c:f>工作表1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1255,10 +1272,13 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1282,30 +1302,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:f>工作表1!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0097200000000001E-2</c:v>
+                  <c:v>0.13070599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12828200000000001</c:v>
+                  <c:v>0.13084399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.128885</c:v>
+                  <c:v>0.13067300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12895499999999999</c:v>
+                  <c:v>0.13073699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12859300000000001</c:v>
+                  <c:v>0.131463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.128195</c:v>
+                  <c:v>0.13113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.128692</c:v>
+                  <c:v>0.13067500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,7 +1333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC4E-485C-B520-B3103E5195BE}"/>
+              <c16:uniqueId val="{00000003-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1327,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355066328"/>
-        <c:axId val="355058880"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355066328"/>
+        <c:axId val="355063976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1391,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>感測器總數</a:t>
                 </a:r>
               </a:p>
@@ -1443,7 +1463,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355058880"/>
+        <c:crossAx val="355058488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1451,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355058880"/>
+        <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,10 +1497,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>packet loss rate</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1550,7 +1570,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355066328"/>
+        <c:crossAx val="355063976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1651,15 +1671,255 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$17</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS0</c:v>
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12803300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.107489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10234500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9575600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7579399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0672600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1674,7 +1934,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="star"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -1691,39 +1951,39 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,20 +1991,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD14-487D-820B-E080F95F85BB}"/>
+              <c16:uniqueId val="{00000004-25C6-46D0-BDCB-05D9D9BB8841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$18</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS1</c:v>
+                  <c:v>NRCA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1776,57 +2036,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
+              <c:f>工作表1!$C$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12803300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD14-487D-820B-E080F95F85BB}"/>
+              <c16:uniqueId val="{00000005-25C6-46D0-BDCB-05D9D9BB8841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
+              <c:f>工作表1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS2</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1858,44 +2121,130 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$18:$I$18</c:f>
+              <c:f>工作表1!$C$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.107489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10234500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD14-487D-820B-E080F95F85BB}"/>
+              <c16:uniqueId val="{00000006-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9575600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7579399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0672600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-25C6-46D0-BDCB-05D9D9BB8841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1909,11 +2258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355059272"/>
-        <c:axId val="355063584"/>
+        <c:axId val="355066328"/>
+        <c:axId val="355058880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355059272"/>
+        <c:axId val="355066328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,6 +2303,707 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355058880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355058880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>packet loss rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355066328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12803300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.107489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10234500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9575600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7579399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0672600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12828200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.128885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12895499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12859300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355063976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>感測器總數</a:t>
                 </a:r>
               </a:p>
@@ -2025,7 +3075,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355063584"/>
+        <c:crossAx val="355058488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2033,10 +3083,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355063584"/>
+        <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2060,10 +3109,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>packet loss rate</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2133,7 +3182,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355059272"/>
+        <c:crossAx val="355063976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3936,27 +4985,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170888</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
+        <xdr:cNvPr id="6" name="圖表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE76CA3E-FCA8-455F-ABA8-63E718B4137D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3972,27 +5023,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352985</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="7" name="圖表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD7B001-FABA-49D4-98F3-0FAACE0C7B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4001,6 +5054,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336004</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152727</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36012EC0-EA4C-4EB6-9AA2-0B740FA92F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4332,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="B6:I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4479,24 +5570,12 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="D8" s="1">
-        <v>500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>600</v>
-      </c>
-      <c r="F8" s="1">
-        <v>700</v>
-      </c>
-      <c r="G8" s="1">
-        <v>800</v>
-      </c>
-      <c r="H8" s="1">
-        <v>900</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1000</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4505,23 +5584,23 @@
       <c r="C9" s="1">
         <v>400</v>
       </c>
-      <c r="D9">
-        <v>0.129001</v>
-      </c>
-      <c r="E9">
-        <v>0.129415</v>
-      </c>
-      <c r="F9">
-        <v>0.12870300000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.12895599999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.12889700000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.12928899999999999</v>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>600</v>
+      </c>
+      <c r="F9" s="1">
+        <v>700</v>
+      </c>
+      <c r="G9" s="1">
+        <v>800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>900</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4535,22 +5614,22 @@
         <v>0.12803300000000001</v>
       </c>
       <c r="D10">
-        <v>0.10506600000000001</v>
+        <v>0.129001</v>
       </c>
       <c r="E10">
-        <v>0.1036</v>
+        <v>0.129415</v>
       </c>
       <c r="F10">
-        <v>0.100937</v>
+        <v>0.12870300000000001</v>
       </c>
       <c r="G10">
-        <v>0.10034</v>
+        <v>0.12895599999999999</v>
       </c>
       <c r="H10">
-        <v>0.102663</v>
+        <v>0.12889700000000001</v>
       </c>
       <c r="I10">
-        <v>0.10234500000000001</v>
+        <v>0.12928899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4561,22 +5640,22 @@
         <v>0.107489</v>
       </c>
       <c r="D11">
-        <v>9.9575600000000007E-3</v>
+        <v>0.10506600000000001</v>
       </c>
       <c r="E11">
-        <v>1.0361E-2</v>
+        <v>0.1036</v>
       </c>
       <c r="F11">
-        <v>1.01978E-2</v>
+        <v>0.100937</v>
       </c>
       <c r="G11">
-        <v>9.7579399999999997E-3</v>
+        <v>0.10034</v>
       </c>
       <c r="H11">
-        <v>1.0672600000000001E-2</v>
+        <v>0.102663</v>
       </c>
       <c r="I11">
-        <v>1.02226E-2</v>
+        <v>0.10234500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4587,22 +5666,22 @@
         <v>1.0097200000000001E-2</v>
       </c>
       <c r="D12">
-        <v>0.12828200000000001</v>
+        <v>9.9575600000000007E-3</v>
       </c>
       <c r="E12">
-        <v>0.128885</v>
+        <v>1.0361E-2</v>
       </c>
       <c r="F12">
-        <v>0.12895499999999999</v>
+        <v>1.01978E-2</v>
       </c>
       <c r="G12">
-        <v>0.12859300000000001</v>
+        <v>9.7579399999999997E-3</v>
       </c>
       <c r="H12">
-        <v>0.128195</v>
+        <v>1.0672600000000001E-2</v>
       </c>
       <c r="I12">
-        <v>0.128692</v>
+        <v>1.02226E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4611,6 +5690,24 @@
       </c>
       <c r="C13">
         <v>0.12795999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.12828200000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.128885</v>
+      </c>
+      <c r="F13">
+        <v>0.12895499999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.12859300000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.128195</v>
+      </c>
+      <c r="I13">
+        <v>0.128692</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/test/output/new封包遺失率比較.xlsx
+++ b/test/output/new封包遺失率比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E0C58-1C27-4EE8-A88E-A930C8611EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FD225-6F09-482D-ADCC-BB1D19955AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -180,11 +182,15 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -487,7 +493,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -497,10 +503,12 @@
             <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -912,7 +920,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$8</c:f>
+              <c:f>工作表1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -931,8 +939,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="6"/>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -948,7 +956,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -978,30 +986,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:f>工作表1!$C$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12803300000000001</c:v>
+                  <c:v>0.130749</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.129001</c:v>
+                  <c:v>0.13122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.129415</c:v>
+                  <c:v>0.13093299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12870300000000001</c:v>
+                  <c:v>0.130963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12895599999999999</c:v>
+                  <c:v>0.13051299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12889700000000001</c:v>
+                  <c:v>0.13048599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12928899999999999</c:v>
+                  <c:v>0.131103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-220B-4259-BE82-65EF202D7B9F}"/>
+              <c16:uniqueId val="{00000000-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1018,7 +1026,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$9</c:f>
+              <c:f>工作表1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,7 +1062,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1084,30 +1092,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:f>工作表1!$C$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.107489</c:v>
+                  <c:v>0.105403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10506600000000001</c:v>
+                  <c:v>0.102995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1036</c:v>
+                  <c:v>0.101853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.100937</c:v>
+                  <c:v>0.101343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10034</c:v>
+                  <c:v>0.10141799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.102663</c:v>
+                  <c:v>0.10173599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10234500000000001</c:v>
+                  <c:v>0.10191600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-220B-4259-BE82-65EF202D7B9F}"/>
+              <c16:uniqueId val="{00000001-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,7 +1132,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$10</c:f>
+              <c:f>工作表1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1160,7 +1168,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1190,30 +1198,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:f>工作表1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0097200000000001E-2</c:v>
+                  <c:v>1.05013E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9575600000000007E-3</c:v>
+                  <c:v>1.0311000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0361E-2</c:v>
+                  <c:v>1.0355100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01978E-2</c:v>
+                  <c:v>1.0635E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7579399999999997E-3</c:v>
+                  <c:v>1.0182500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0672600000000001E-2</c:v>
+                  <c:v>1.0955700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.02226E-2</c:v>
+                  <c:v>9.6988500000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,7 +1229,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-220B-4259-BE82-65EF202D7B9F}"/>
+              <c16:uniqueId val="{00000002-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1230,7 +1238,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1264,7 +1272,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:f>工作表1!$C$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1294,30 +1302,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:f>工作表1!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12795999999999999</c:v>
+                  <c:v>0.13070599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12828200000000001</c:v>
+                  <c:v>0.13084399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.128885</c:v>
+                  <c:v>0.13067300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12895499999999999</c:v>
+                  <c:v>0.13073699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12859300000000001</c:v>
+                  <c:v>0.131463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.128195</c:v>
+                  <c:v>0.13113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.128692</c:v>
+                  <c:v>0.13067500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,7 +1333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC4E-485C-B520-B3103E5195BE}"/>
+              <c16:uniqueId val="{00000003-BA38-4C02-ABD7-B3504FC6AB66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355066328"/>
-        <c:axId val="355058880"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355066328"/>
+        <c:axId val="355063976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1391,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>感測器總數</a:t>
                 </a:r>
               </a:p>
@@ -1455,7 +1463,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355058880"/>
+        <c:crossAx val="355058488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355058880"/>
+        <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,10 +1497,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>packet loss rate</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1562,7 +1570,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355066328"/>
+        <c:crossAx val="355063976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,15 +1671,255 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$15</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS0</c:v>
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12803300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.107489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10234500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9575600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7579399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0672600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1686,7 +1934,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
+            <c:symbol val="star"/>
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
@@ -1703,7 +1951,16 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1728,35 +1985,26 @@
                 <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$C$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD14-487D-820B-E080F95F85BB}"/>
+              <c16:uniqueId val="{00000004-25C6-46D0-BDCB-05D9D9BB8841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$16</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS1</c:v>
+                  <c:v>NRCA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1788,60 +2036,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$16:$I$16</c:f>
+              <c:f>工作表1!$C$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12803300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD14-487D-820B-E080F95F85BB}"/>
+              <c16:uniqueId val="{00000005-25C6-46D0-BDCB-05D9D9BB8841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$17</c:f>
+              <c:f>工作表1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS2</c:v>
+                  <c:v>Optimal LEACH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1873,47 +2121,130 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$C$14:$I$14</c:f>
+              <c:f>工作表1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$17:$I$17</c:f>
+              <c:f>工作表1!$C$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.107489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10234500000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD14-487D-820B-E080F95F85BB}"/>
+              <c16:uniqueId val="{00000006-25C6-46D0-BDCB-05D9D9BB8841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9575600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7579399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0672600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-25C6-46D0-BDCB-05D9D9BB8841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1927,11 +2258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355059272"/>
-        <c:axId val="355063584"/>
+        <c:axId val="355066328"/>
+        <c:axId val="355058880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355059272"/>
+        <c:axId val="355066328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,6 +2303,707 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355058880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355058880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>packet loss rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355066328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E-DSR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12803300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12870300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12895599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12889700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12928899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NRCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.107489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10234500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimal LEACH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9575600000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0361E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7579399999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0672600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02226E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>my</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12828200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.128885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12895499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12859300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.128692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7673-4D2E-980F-D12652A66471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="355063976"/>
+        <c:axId val="355058488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="355063976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
                   <a:t>感測器總數</a:t>
                 </a:r>
               </a:p>
@@ -2043,7 +3075,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355063584"/>
+        <c:crossAx val="355058488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,10 +3083,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355063584"/>
+        <c:axId val="355058488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2078,10 +3109,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>packet loss rate</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2151,7 +3182,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355059272"/>
+        <c:crossAx val="355063976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3920,13 +4951,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>276223</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3954,27 +4985,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>262050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170888</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3">
+        <xdr:cNvPr id="6" name="圖表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE76CA3E-FCA8-455F-ABA8-63E718B4137D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3990,27 +5023,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352985</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="7" name="圖表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD7B001-FABA-49D4-98F3-0FAACE0C7B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4019,6 +5054,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>124810</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336004</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152727</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36012EC0-EA4C-4EB6-9AA2-0B740FA92F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4348,21 +5421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="3" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4388,7 +5461,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4417,7 +5490,7 @@
         <v>0.131103</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +5516,7 @@
         <v>0.10191600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -4469,7 +5542,7 @@
         <v>9.6988500000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4495,189 +5568,197 @@
         <v>0.13067500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>400</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
         <v>500</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>600</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F9" s="1">
         <v>700</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G9" s="1">
         <v>800</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H9" s="1">
         <v>900</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I9" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>0.12803300000000001</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>0.129001</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>0.129415</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>0.12870300000000001</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>0.12895599999999999</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>0.12889700000000001</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>0.12928899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>0.107489</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>0.10506600000000001</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>0.1036</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>0.100937</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>0.10034</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>0.102663</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>0.10234500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>1.0097200000000001E-2</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>9.9575600000000007E-3</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>1.0361E-2</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>1.01978E-2</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>9.7579399999999997E-3</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>1.0672600000000001E-2</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>1.02226E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>0.12795999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>0.12828200000000001</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.128885</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>0.12895499999999999</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>0.12859300000000001</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>0.128195</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>0.128692</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>600</v>
+      </c>
+      <c r="F15" s="1">
+        <v>700</v>
+      </c>
+      <c r="G15" s="1">
+        <v>800</v>
+      </c>
+      <c r="H15" s="1">
+        <v>900</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <v>400</v>
       </c>
-      <c r="D14" s="1">
-        <v>500</v>
-      </c>
-      <c r="E14" s="1">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>700</v>
-      </c>
-      <c r="G14" s="1">
-        <v>800</v>
-      </c>
-      <c r="H14" s="1">
-        <v>900</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
